--- a/biology/Botanique/Tweedia/Tweedia.xlsx
+++ b/biology/Botanique/Tweedia/Tweedia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Tweedia est un genre de plantes à fleurs de la famille des Apocynaceae, d'abord décrit comme un genre en 1835. Le genre est originaire d'Amérique du Sud[2]. Plante ornementale, Oxypetalum coeruleum, précédemment inclus dans le genre qui est communément appelé "tweedia"[3],[4],[5],[6],[7].
-Espèces[8]
+Tweedia est un genre de plantes à fleurs de la famille des Apocynaceae, d'abord décrit comme un genre en 1835. Le genre est originaire d'Amérique du Sud. Plante ornementale, Oxypetalum coeruleum, précédemment inclus dans le genre qui est communément appelé "tweedia".
+Espèces
 Tweedia andina (Phil.) G. H. Rua - Chili
 Tweedia aucaensis G. H. Rua - Argentine
 Tweedia australis (Malme) C. Ezcurra - Argentine
@@ -492,7 +504,7 @@
 Tweedia brunonis Crochet. &amp; Arn.  - L'Argentine, La Bolivie, Le Paraguay
 Tweedia echegarayi (Hiéron.) Malme - Argentine
 Tweedia solanoides (Crochet. &amp; Arn.) Chittenden - Argentine, Brésil, Paraguay, Uruguay
-précédemment inclus[8]
+précédemment inclus
 Tweedia coerulea,   syn de Oxypetalum coeruleum
 Tweedia floribunda, syn de Oxypetalum solanoides
 Tweedia macrolepis, syn de Oxypetalum macrolepis
